--- a/data/pandemic-legislation/american_rescue_plan.xlsx
+++ b/data/pandemic-legislation/american_rescue_plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/data/pandemic-legislation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DDDA47-94FA-5D44-9C74-F2C4259E851B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45550D7-A04A-6C4B-A37F-CE3F0F5EFBE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1617,7 +1617,7 @@
   <dimension ref="A1:BA989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -24523,7 +24523,7 @@
   </sheetPr>
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="16">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="F3" s="16">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="16">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="F4" s="16">
         <v>0.5</v>

--- a/data/pandemic-legislation/american_rescue_plan.xlsx
+++ b/data/pandemic-legislation/american_rescue_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/data/pandemic-legislation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A497A2-AD43-484D-A928-FCAEECF979EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6056D716-614D-5F48-B697-5EFF3FD16988}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="520" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ARP" sheetId="1" r:id="rId1"/>
@@ -1616,8 +1616,8 @@
   </sheetPr>
   <dimension ref="A1:BA989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1637,7 +1637,8 @@
     <col min="17" max="17" width="13" customWidth="1"/>
     <col min="18" max="19" width="29" customWidth="1"/>
     <col min="20" max="23" width="34.5" customWidth="1"/>
-    <col min="24" max="25" width="18.5" customWidth="1"/>
+    <col min="24" max="24" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5" customWidth="1"/>
     <col min="26" max="27" width="25.83203125" customWidth="1"/>
     <col min="28" max="28" width="28.6640625" customWidth="1"/>
     <col min="29" max="30" width="26.5" customWidth="1"/>
@@ -4353,7 +4354,10 @@
       <c r="Z27" s="36"/>
       <c r="AA27" s="36"/>
       <c r="AC27" s="40"/>
-      <c r="AE27" s="14"/>
+      <c r="AE27" s="14">
+        <f>334+28</f>
+        <v>362</v>
+      </c>
       <c r="AF27" s="52"/>
       <c r="AL27" s="31"/>
       <c r="AM27" s="25"/>
@@ -4382,7 +4386,10 @@
       <c r="Z28" s="36"/>
       <c r="AA28" s="36"/>
       <c r="AC28" s="40"/>
-      <c r="AE28" s="14"/>
+      <c r="AE28" s="14">
+        <f>AE27*4</f>
+        <v>1448</v>
+      </c>
       <c r="AF28" s="52"/>
       <c r="AL28" s="31"/>
       <c r="AM28" s="25"/>
@@ -4410,7 +4417,9 @@
       <c r="Z29" s="36"/>
       <c r="AA29" s="36"/>
       <c r="AC29" s="40"/>
-      <c r="AE29" s="14"/>
+      <c r="AE29" s="14">
+        <v>36465.42</v>
+      </c>
       <c r="AF29" s="52"/>
       <c r="AL29" s="31"/>
       <c r="AM29" s="25"/>

--- a/data/pandemic-legislation/american_rescue_plan.xlsx
+++ b/data/pandemic-legislation/american_rescue_plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/data/pandemic-legislation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6056D716-614D-5F48-B697-5EFF3FD16988}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D300CB3-529A-814B-B11E-5B6C705D5B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ARP" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,24 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={34F0BA29-B464-9F46-932E-0353820A18E5}</author>
+  </authors>
+  <commentList>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{34F0BA29-B464-9F46-932E-0353820A18E5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CBO had 14.5 for 2022. We zeroed it out because BEA put it all in capital grants in 2021 Q1</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1059,7 +1077,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1151,6 +1169,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1220,7 +1244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1384,6 +1408,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1411,6 +1436,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Manuel Alcala Kovalski" id="{A3F377C0-02AB-5341-A9A9-F8950CA885B9}" userId="S::malcalakovalski@brookings.edu::65ca0f03-2f5c-48fe-8ae6-628c3a907f64" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1609,15 +1640,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H5" dT="2021-06-01T15:55:29.39" personId="{A3F377C0-02AB-5341-A9A9-F8950CA885B9}" id="{34F0BA29-B464-9F46-932E-0353820A18E5}">
+    <text>CBO had 14.5 for 2022. We zeroed it out because BEA put it all in capital grants in 2021 Q1</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BA989"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1660,10 +1699,10 @@
   <sheetData>
     <row r="1" spans="1:53" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="78"/>
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1672,31 +1711,31 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="79" t="s">
+      <c r="L1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="80" t="s">
+      <c r="T1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="81" t="s">
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
       <c r="AE1" s="4"/>
       <c r="AF1" s="5"/>
       <c r="AG1" s="4"/>
@@ -1707,14 +1746,14 @@
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
       <c r="AN1" s="4"/>
-      <c r="AO1" s="82" t="s">
+      <c r="AO1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
       <c r="AU1" s="6"/>
       <c r="AV1" s="6"/>
       <c r="AW1" s="7"/>
@@ -2042,7 +2081,7 @@
         <v>18.823</v>
       </c>
       <c r="H4" s="16">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I4" s="14">
         <v>11.481999999999999</v>
@@ -2193,7 +2232,7 @@
         <v>2.5950000000000002</v>
       </c>
       <c r="H5" s="11">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="I5" s="18">
         <v>25.070999999999998</v>
@@ -2344,7 +2383,7 @@
         <v>0.93700000000000006</v>
       </c>
       <c r="H6" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" s="14">
         <v>7.891</v>
@@ -2495,7 +2534,7 @@
         <v>0.16</v>
       </c>
       <c r="H7" s="11">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="I7" s="18">
         <v>0.504</v>
@@ -2646,7 +2685,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="H8" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="30">
         <v>0</v>
@@ -2797,7 +2836,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H9" s="11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I9" s="32">
         <v>0</v>
@@ -3710,7 +3749,7 @@
       </c>
       <c r="H15" s="11">
         <f t="shared" si="0"/>
-        <v>41.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" si="0"/>
@@ -4017,14 +4056,14 @@
       </c>
       <c r="B19" s="11">
         <f>SUM(G15:S15)</f>
-        <v>342.82400000000001</v>
+        <v>301.22400000000005</v>
       </c>
       <c r="C19" s="11">
         <v>400</v>
       </c>
       <c r="D19" s="11">
         <f t="shared" si="1"/>
-        <v>57.175999999999988</v>
+        <v>98.775999999999954</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -4178,7 +4217,7 @@
       </c>
       <c r="B22" s="18">
         <f t="shared" ref="B22:D22" si="2">SUM(B18:B21)</f>
-        <v>1890.7179999999998</v>
+        <v>1849.1179999999999</v>
       </c>
       <c r="C22" s="18">
         <f t="shared" si="2"/>
@@ -4186,7 +4225,7 @@
       </c>
       <c r="D22" s="18">
         <f t="shared" si="2"/>
-        <v>9.2820000000001244</v>
+        <v>50.88200000000009</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -24522,6 +24561,7 @@
     <mergeCell ref="AO1:AT1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24532,8 +24572,8 @@
   </sheetPr>
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -24656,8 +24696,8 @@
       <c r="D3" s="16">
         <v>0</v>
       </c>
-      <c r="E3" s="16">
-        <v>1</v>
+      <c r="E3" s="77">
+        <v>0.85489165453244786</v>
       </c>
       <c r="F3" s="16">
         <v>0</v>
@@ -24686,7 +24726,8 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="16">
-        <v>0</v>
+        <f>1-E3</f>
+        <v>0.14510834546755214</v>
       </c>
       <c r="F4" s="16">
         <v>0.5</v>
